--- a/anjou/법카 사용 내역.xlsx
+++ b/anjou/법카 사용 내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA9DD50-200A-4F66-BA9A-492FF55F070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC63B5D-9E14-4A20-BBCD-5629754070FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C5745757-B890-4421-9519-B2BE7AEC4070}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>법카 사용 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t xml:space="preserve">총 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등기국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량용품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,47 +309,47 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,174 +668,192 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>45383</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>120000</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>6600</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7000</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2400</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>2400</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>18000</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="8">
         <f>SUM(D4:D27)</f>
-        <v>132600</v>
+        <v>162400</v>
       </c>
     </row>
   </sheetData>
